--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTable.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/PriceEvaluationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码\财务\Finance\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱正义\source\repos\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C07C44-6633-4C34-9E2C-20656BA78C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF8439E-9783-42AC-B587-240C0FDD206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>汇率</t>
   </si>
@@ -485,6 +485,14 @@
   </si>
   <si>
     <t>{{Material.Remarks}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Material.ModificationComments}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1138,11 +1146,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1549,6 +1566,75 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,9 +1644,6 @@
     <xf numFmtId="177" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,9 +1656,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1594,67 +1674,7 @@
     <xf numFmtId="178" fontId="11" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,31 +2001,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.125" customWidth="1"/>
+    <col min="1" max="4" width="10.08203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="54.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="54.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="11.58203125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -2027,7 +2047,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="123"/>
       <c r="C2" s="123"/>
@@ -2051,7 +2071,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="123"/>
       <c r="C3" s="123"/>
@@ -2075,111 +2095,111 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170" t="s">
+    <row r="4" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="172"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="150"/>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="172"/>
+    <row r="5" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
       <c r="R5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="176"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="172"/>
+      <c r="T5" s="154"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="148"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="150"/>
       <c r="R6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="176"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="175"/>
+      <c r="T6" s="154"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="151"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="153"/>
       <c r="R7" s="12" t="s">
         <v>121</v>
       </c>
       <c r="S7" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T7" s="177"/>
-    </row>
-    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="T7" s="155"/>
+    </row>
+    <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -2240,8 +2260,11 @@
       <c r="T8" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="U8" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>61</v>
       </c>
@@ -2302,16 +2325,20 @@
       <c r="T9" s="32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="178" t="s">
+      <c r="U9" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" s="184"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
@@ -2335,7 +2362,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="41"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="138"/>
       <c r="B11" s="139"/>
       <c r="C11" s="139"/>
@@ -2361,7 +2388,7 @@
       <c r="S11" s="143"/>
       <c r="T11" s="147"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="138"/>
       <c r="B12" s="139"/>
       <c r="C12" s="139"/>
@@ -2387,7 +2414,7 @@
       <c r="S12" s="143"/>
       <c r="T12" s="147"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="138"/>
       <c r="B13" s="139"/>
       <c r="C13" s="139"/>
@@ -2409,7 +2436,7 @@
       <c r="S13" s="143"/>
       <c r="T13" s="147"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="125"/>
       <c r="C14" s="125"/>
@@ -2431,29 +2458,29 @@
       <c r="S14" s="27"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="181" t="s">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183" t="s">
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="151" t="s">
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="42"/>
@@ -2461,13 +2488,13 @@
       <c r="S15" s="44"/>
       <c r="T15" s="45"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="181"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="159"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="46" t="s">
         <v>21</v>
       </c>
@@ -2495,13 +2522,13 @@
       <c r="O16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="151"/>
+      <c r="P16" s="162"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="51"/>
       <c r="S16" s="52"/>
       <c r="T16" s="53"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="163" t="s">
         <v>101</v>
       </c>
@@ -2545,7 +2572,7 @@
       <c r="S17" s="57"/>
       <c r="T17" s="58"/>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="134"/>
       <c r="B18" s="135"/>
       <c r="C18" s="135"/>
@@ -2567,7 +2594,7 @@
       <c r="S18" s="63"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="166" t="s">
         <v>80</v>
       </c>
@@ -2603,7 +2630,7 @@
       <c r="S19" s="74"/>
       <c r="T19" s="75"/>
     </row>
-    <row r="20" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="167" t="s">
         <v>79</v>
       </c>
@@ -2639,7 +2666,7 @@
       <c r="S20" s="74"/>
       <c r="T20" s="75"/>
     </row>
-    <row r="21" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="167" t="s">
         <v>81</v>
       </c>
@@ -2675,7 +2702,7 @@
       <c r="S21" s="74"/>
       <c r="T21" s="75"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="129"/>
       <c r="B22" s="130"/>
       <c r="C22" s="130"/>
@@ -2697,35 +2724,35 @@
       <c r="S22" s="63"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="168" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
       <c r="D23" s="169"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="155" t="s">
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="155" t="s">
+      <c r="H23" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="156" t="s">
+      <c r="I23" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156" t="s">
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156" t="s">
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="148" t="s">
+      <c r="P23" s="171" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="77"/>
@@ -2733,15 +2760,15 @@
       <c r="S23" s="74"/>
       <c r="T23" s="75"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="168"/>
       <c r="B24" s="169"/>
       <c r="C24" s="169"/>
       <c r="D24" s="169"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
       <c r="I24" s="79" t="s">
         <v>32</v>
       </c>
@@ -2760,20 +2787,20 @@
       <c r="N24" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="156"/>
-      <c r="P24" s="148"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
       <c r="Q24" s="77"/>
       <c r="R24" s="51"/>
       <c r="S24" s="74"/>
       <c r="T24" s="75"/>
     </row>
-    <row r="25" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A25" s="168"/>
       <c r="B25" s="169"/>
       <c r="C25" s="169"/>
       <c r="D25" s="169"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
       <c r="G25" s="82" t="s">
         <v>64</v>
       </c>
@@ -2807,15 +2834,15 @@
       <c r="S25" s="69"/>
       <c r="T25" s="69"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="149" t="s">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
       <c r="I26" s="87"/>
@@ -2833,7 +2860,7 @@
       <c r="S26" s="91"/>
       <c r="T26" s="92"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="59"/>
       <c r="B27" s="126"/>
       <c r="C27" s="126"/>
@@ -2855,12 +2882,12 @@
       <c r="S27" s="63"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="152" t="s">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="178"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="174" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="93" t="s">
@@ -2881,12 +2908,12 @@
       <c r="S28" s="91"/>
       <c r="T28" s="95"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="160"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="152"/>
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="181"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="83" t="s">
         <v>40</v>
       </c>
@@ -2905,14 +2932,14 @@
       <c r="S29" s="91"/>
       <c r="T29" s="95"/>
     </row>
-    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="153" t="s">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="98" t="s">
         <v>77</v>
       </c>
@@ -2939,7 +2966,7 @@
       <c r="S30" s="102"/>
       <c r="T30" s="103"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A31" s="104"/>
       <c r="B31" s="127"/>
       <c r="C31" s="127"/>
@@ -2963,7 +2990,7 @@
       <c r="S31" s="108"/>
       <c r="T31" s="111"/>
     </row>
-    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="112"/>
       <c r="B32" s="128"/>
       <c r="C32" s="128"/>
@@ -2987,18 +3014,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A4:Q7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F25"/>
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="E28:E29"/>
@@ -3009,6 +3024,18 @@
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F25"/>
+    <mergeCell ref="A4:Q7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:P16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
